--- a/data/trans_camb/P2A_lim_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 4,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 4,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 8,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 4,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 1,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 10,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 7,57</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,09%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 367,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,1; 324,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 616,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,54; 169,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,58; 41,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,63; 357,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,24; 176,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,81; 87,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,65; 320,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 5,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 2,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 13,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 5,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 2,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 5,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 8,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>235,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,35%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 196,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,58; 100,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,8; 490,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 253,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,69; 110,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 233,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,04; 172,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,22; 67,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,23; 285,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 5,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 1,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 6,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 4,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 4,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 1,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 3,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,63%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 136,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,19; 50,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,46; 80,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 131,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,45; 41,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; 91,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,19; 103,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,3; 22,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 66,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 5,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 6,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 8,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 5,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 0,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 4,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 5,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 2,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 5,32</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,05%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; 112,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; 113,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,04; 130,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,51; 67,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,22; 8,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 50,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 68,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,79; 32,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,2; 66,84</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 5,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 2,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 10,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 8,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 9,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 6,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 6,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 5,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,45; 7,64</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,52%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,29; 49,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,18; 29,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,71; 106,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 112,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 119,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,66; 79,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 65,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,59; 52,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,36; 79,27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,36</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 10,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 2,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 9,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 7,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 5,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 68,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 7,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 3,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 57,09</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>310,24%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,61%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 106,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,45; 33,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 107,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,64; 86,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,59; 62,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,13; 930,34</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 73,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,74; 33,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,11; 539,52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 12,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,64; -0,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,47; 19,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 11,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 6,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,43; 23,73</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 10,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 2,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,39; 20,61</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,64%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,86%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; 100,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,87; -3,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,93; 155,91</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 90,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,51; 46,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,13; 173,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 71,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,38; 15,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,91; 153,41</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,14</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>10,46</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 4,25</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 1,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 7,99</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 4,85</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 1,83</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 24,82</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 4,17</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,45</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 16,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>43,35%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>92,4%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>43,37%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>130,27%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>43,41%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>114,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 69,55</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; 24,88</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>51,24; 131,69</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 65,43</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 24,55</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>63,18; 310,55</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>28,21; 60,56</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 21,14</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>71,64; 226,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_lim_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Edad-trans_camb.xlsx
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,59</t>
+          <t>0,02; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,28</t>
+          <t>-0,29; 4,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,24</t>
+          <t>0,69; 8,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,73</t>
+          <t>-1,08; 4,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,02</t>
+          <t>-3,78; 0,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,61</t>
+          <t>0,88; 9,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,94</t>
+          <t>0,15; 3,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,88</t>
+          <t>-1,41; 1,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,57</t>
+          <t>1,6; 7,65</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>112,22%</t>
+          <t>112,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>188,99%</t>
+          <t>192,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>68,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>146,09%</t>
+          <t>147,88%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 367,48</t>
+          <t>-13,11; 390,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 324,79</t>
+          <t>-15,52; 332,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 616,58</t>
+          <t>7,44; 673,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 169,15</t>
+          <t>-21,27; 168,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,58; 41,81</t>
+          <t>-72,57; 32,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 357,29</t>
+          <t>14,21; 342,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 176,78</t>
+          <t>2,63; 165,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 87,03</t>
+          <t>-38,34; 85,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,65; 320,67</t>
+          <t>36,88; 309,49</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,08</t>
+          <t>0,81; 5,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,51</t>
+          <t>-1,61; 2,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,38</t>
+          <t>4,27; 13,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,73</t>
+          <t>0,65; 5,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,54</t>
+          <t>-1,66; 2,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,82</t>
+          <t>-0,09; 5,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,64</t>
+          <t>1,25; 4,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,8</t>
+          <t>-0,89; 2,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,13</t>
+          <t>2,53; 8,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>235,66%</t>
+          <t>237,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>158,35%</t>
+          <t>159,32%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 196,42</t>
+          <t>17,55; 224,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 100,71</t>
+          <t>-38,45; 105,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,8; 490,83</t>
+          <t>108,43; 501,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 253,62</t>
+          <t>9,35; 250,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 110,11</t>
+          <t>-42,08; 111,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 233,22</t>
+          <t>-3,9; 240,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 172,51</t>
+          <t>30,3; 177,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 67,86</t>
+          <t>-24,11; 83,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,23; 285,62</t>
+          <t>60,15; 282,62</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,17</t>
+          <t>-0,37; 5,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,81</t>
+          <t>-2,87; 2,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,26</t>
+          <t>-2,25; 3,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,39</t>
+          <t>0,3; 6,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,92</t>
+          <t>-3,52; 1,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,34</t>
+          <t>-1,49; 4,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,73</t>
+          <t>0,7; 4,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,1</t>
+          <t>-2,59; 1,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,14</t>
+          <t>-1,03; 3,13</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,65%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 136,9</t>
+          <t>-6,6; 147,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 50,36</t>
+          <t>-45,71; 57,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 80,21</t>
+          <t>-36,5; 94,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 131,81</t>
+          <t>3,84; 130,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 41,85</t>
+          <t>-45,91; 37,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 91,51</t>
+          <t>-19,83; 91,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,19; 103,99</t>
+          <t>9,68; 107,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 22,79</t>
+          <t>-36,96; 23,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 66,5</t>
+          <t>-16,55; 64,33</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,94</t>
+          <t>-1,13; 5,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,24</t>
+          <t>-0,69; 6,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 8,35</t>
+          <t>-2,94; 8,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,95</t>
+          <t>-2,02; 5,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,75</t>
+          <t>-6,03; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,5</t>
+          <t>-3,14; 4,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,33</t>
+          <t>-0,42; 4,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,53</t>
+          <t>-2,33; 2,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,32</t>
+          <t>-2,32; 5,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,33%</t>
+          <t>-24,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>25,25%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 112,67</t>
+          <t>-13,57; 110,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 113,69</t>
+          <t>-8,7; 126,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 130,2</t>
+          <t>-35,37; 138,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 67,13</t>
+          <t>-16,42; 63,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,22; 8,95</t>
+          <t>-47,42; 10,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 50,57</t>
+          <t>-23,15; 48,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 68,84</t>
+          <t>-4,44; 62,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 32,49</t>
+          <t>-22,44; 34,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 66,84</t>
+          <t>-22,48; 67,21</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,09</t>
+          <t>-3,78; 5,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 2,77</t>
+          <t>-6,12; 2,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 10,75</t>
+          <t>2,02; 11,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 8,82</t>
+          <t>-0,44; 8,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 9,34</t>
+          <t>-0,02; 9,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,02</t>
+          <t>-1,08; 6,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,22</t>
+          <t>-0,77; 5,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,17</t>
+          <t>-1,52; 5,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,64</t>
+          <t>1,69; 7,4</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1622,27 +1622,27 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>41,27%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 49,93</t>
+          <t>-25,83; 55,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 29,16</t>
+          <t>-41,56; 27,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,71; 106,86</t>
+          <t>12,68; 114,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 112,31</t>
+          <t>-4,84; 114,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 119,85</t>
+          <t>-1,31; 122,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 79,65</t>
+          <t>-8,52; 87,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 65,78</t>
+          <t>-5,46; 63,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 52,21</t>
+          <t>-12,03; 56,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,36; 79,27</t>
+          <t>12,63; 79,33</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,22 +1737,22 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>34,36</t>
+          <t>34,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>23,23</t>
+          <t>23,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 10,26</t>
+          <t>-2,01; 9,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,91</t>
+          <t>-6,45; 2,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,68</t>
+          <t>-0,12; 9,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,7</t>
+          <t>-2,64; 7,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,7</t>
+          <t>-3,78; 5,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,28; 68,9</t>
+          <t>5,34; 67,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,23</t>
+          <t>-0,74; 7,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,29</t>
+          <t>-4,04; 2,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4,91; 57,09</t>
+          <t>5,01; 53,93</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-17,36%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,22 +1843,22 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>310,24%</t>
+          <t>310,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>204,61%</t>
+          <t>204,87%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 106,66</t>
+          <t>-14,59; 106,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 33,24</t>
+          <t>-46,12; 32,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 107,92</t>
+          <t>-1,2; 102,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 86,82</t>
+          <t>-20,88; 81,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 62,4</t>
+          <t>-28,67; 61,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>47,13; 930,34</t>
+          <t>44,28; 785,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 73,09</t>
+          <t>-5,6; 76,02</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 33,53</t>
+          <t>-30,81; 28,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>40,11; 539,52</t>
+          <t>42,69; 553,46</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>18,69</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>16,55</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 12,74</t>
+          <t>-2,13; 12,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -0,68</t>
+          <t>-12,7; -1,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,47; 19,32</t>
+          <t>6,74; 19,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,91</t>
+          <t>-0,67; 11,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,45</t>
+          <t>-5,83; 6,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,43; 23,73</t>
+          <t>13,38; 23,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 10,1</t>
+          <t>0,8; 10,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,22</t>
+          <t>-6,45; 1,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,39; 20,61</t>
+          <t>12,33; 20,34</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>108,64%</t>
+          <t>109,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>100,62%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 100,03</t>
+          <t>-11,58; 108,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,87; -3,5</t>
+          <t>-66,7; -7,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>30,93; 155,91</t>
+          <t>34,86; 165,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 90,13</t>
+          <t>-3,19; 82,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 46,84</t>
+          <t>-29,51; 43,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>63,13; 173,74</t>
+          <t>62,57; 176,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,27; 71,54</t>
+          <t>4,14; 71,85</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 15,87</t>
+          <t>-34,44; 13,62</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>64,91; 153,41</t>
+          <t>62,75; 149,51</t>
         </is>
       </c>
     </row>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2164,27 +2164,27 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>8,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,25</t>
+          <t>1,48; 4,3</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,5</t>
+          <t>-0,98; 1,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,99</t>
+          <t>3,34; 8,03</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,85</t>
+          <t>2,0; 4,86</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,83</t>
+          <t>-0,67; 2,09</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,23; 24,82</t>
+          <t>5,29; 24,61</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,17</t>
+          <t>2,28; 4,16</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,45</t>
+          <t>-0,43; 1,41</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>5,41; 16,35</t>
+          <t>5,6; 20,5</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>130,27%</t>
+          <t>131,01%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>114,93%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>21,15; 69,55</t>
+          <t>20,37; 70,69</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 24,88</t>
+          <t>-13,5; 28,49</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>51,24; 131,69</t>
+          <t>47,85; 127,85</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>22,23; 65,43</t>
+          <t>22,41; 65,67</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 24,55</t>
+          <t>-7,53; 28,79</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>63,18; 310,55</t>
+          <t>64,3; 322,65</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>28,21; 60,56</t>
+          <t>28,81; 60,41</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 21,14</t>
+          <t>-5,49; 20,43</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>71,64; 226,63</t>
+          <t>74,06; 262,23</t>
         </is>
       </c>
     </row>
